--- a/docs/excel/TMapStore.xlsx
+++ b/docs/excel/TMapStore.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -168,26 +168,6 @@
     <t>TableName: "TMapStore" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -202,6 +182,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -628,7 +609,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,8 +709,8 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>32</v>
+      <c r="A5" s="13">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3001</v>
@@ -749,8 +730,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
+      <c r="A6" s="13">
+        <v>0</v>
       </c>
       <c r="B6">
         <v>3002</v>
@@ -770,8 +751,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>32</v>
+      <c r="A7" s="13">
+        <v>0</v>
       </c>
       <c r="B7">
         <v>3003</v>
@@ -889,7 +870,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TMapStore.xlsx
+++ b/docs/excel/TMapStore.xlsx
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -709,10 +709,10 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="A5">
+        <v>110001</v>
+      </c>
+      <c r="B5" s="4">
         <v>3001</v>
       </c>
       <c r="C5">
@@ -724,17 +724,13 @@
       <c r="E5">
         <v>1000</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
-      <c r="H5"/>
-      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>3002</v>
+      <c r="A6">
+        <v>110002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3001</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -745,116 +741,767 @@
       <c r="E6">
         <v>1000</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
-      <c r="H6"/>
-      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>0</v>
-      </c>
-      <c r="B7">
+      <c r="A7">
+        <v>110003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>110004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>110005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>110006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>110007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>110008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>110009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>110010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>110011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>110012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>110013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>110014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>120001</v>
+      </c>
+      <c r="B19">
         <v>3003</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
-      <c r="H7"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-      <c r="H8"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-      <c r="H9"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-      <c r="H10"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
-      <c r="H11"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="12"/>
-      <c r="H13"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="12"/>
-      <c r="H14"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J16" s="6"/>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="11"/>
+      <c r="H19"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>120002</v>
+      </c>
+      <c r="B20">
+        <v>3003</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
+      <c r="H20"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>120003</v>
+      </c>
+      <c r="B21">
+        <v>3003</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+      <c r="H21"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>120004</v>
+      </c>
+      <c r="B22">
+        <v>3003</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="11"/>
+      <c r="H22"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>120005</v>
+      </c>
+      <c r="B23">
+        <v>3003</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="11"/>
+      <c r="H23"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>130001</v>
+      </c>
+      <c r="B24">
+        <v>3002</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11"/>
+      <c r="H24"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>130002</v>
+      </c>
+      <c r="B25">
+        <v>3002</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="12"/>
+      <c r="H25"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>130003</v>
+      </c>
+      <c r="B26">
+        <v>3002</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>130004</v>
+      </c>
+      <c r="B27">
+        <v>3002</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="12"/>
+      <c r="H27"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>130005</v>
+      </c>
+      <c r="B28">
+        <v>3002</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="12"/>
+      <c r="H28"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>130006</v>
+      </c>
+      <c r="B29">
+        <v>3002</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>130007</v>
+      </c>
+      <c r="B30">
+        <v>3002</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>130008</v>
+      </c>
+      <c r="B31">
+        <v>3002</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>130009</v>
+      </c>
+      <c r="B32">
+        <v>3002</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>130010</v>
+      </c>
+      <c r="B33">
+        <v>3002</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>130011</v>
+      </c>
+      <c r="B34">
+        <v>3002</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>130012</v>
+      </c>
+      <c r="B35">
+        <v>3002</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>130013</v>
+      </c>
+      <c r="B36">
+        <v>3002</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>130014</v>
+      </c>
+      <c r="B37">
+        <v>3002</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>130015</v>
+      </c>
+      <c r="B38">
+        <v>3002</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>130016</v>
+      </c>
+      <c r="B39">
+        <v>3002</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>130017</v>
+      </c>
+      <c r="B40">
+        <v>3002</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>130018</v>
+      </c>
+      <c r="B41">
+        <v>3002</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>130019</v>
+      </c>
+      <c r="B42">
+        <v>3002</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>130020</v>
+      </c>
+      <c r="B43">
+        <v>3002</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>130021</v>
+      </c>
+      <c r="B44">
+        <v>3002</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>130022</v>
+      </c>
+      <c r="B45">
+        <v>3002</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>130023</v>
+      </c>
+      <c r="B46">
+        <v>3002</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>130024</v>
+      </c>
+      <c r="B47">
+        <v>3002</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>130025</v>
+      </c>
+      <c r="B48">
+        <v>3002</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A5:O48">
+    <sortCondition ref="A5"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>

--- a/docs/excel/TMapStore.xlsx
+++ b/docs/excel/TMapStore.xlsx
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -770,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -787,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -804,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -838,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -872,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -889,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -906,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -923,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -939,11 +939,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
-        <v>100</v>
+      <c r="D18">
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -957,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="11"/>
@@ -978,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="11"/>
@@ -999,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="11"/>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="11"/>
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="11"/>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
@@ -1083,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="12"/>
@@ -1104,10 +1104,10 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="12"/>
@@ -1146,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="12"/>
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>1000</v>
+        <v>-1</v>
       </c>
       <c r="J30" s="6"/>
     </row>
@@ -1203,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1220,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,10 +1271,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1322,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,10 +1458,10 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TMapStore.xlsx
+++ b/docs/excel/TMapStore.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>TableName: "TMapStore" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -666,8 +670,8 @@
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
+      <c r="E2" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
